--- a/HDB/CSTC.xlsx
+++ b/HDB/CSTC.xlsx
@@ -2251,7 +2251,7 @@
         <v>1.22</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="14">
@@ -3235,7 +3235,7 @@
         <v>18.05</v>
       </c>
       <c r="AW21" t="n">
-        <v>10.23</v>
+        <v>25.57</v>
       </c>
     </row>
     <row r="22">
@@ -3485,7 +3485,7 @@
         <v>20.72</v>
       </c>
       <c r="AW23" t="n">
-        <v>0</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="24">
@@ -3626,7 +3626,7 @@
         <v>22.74</v>
       </c>
       <c r="AW24" t="n">
-        <v>14</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="25">
@@ -3767,7 +3767,7 @@
         <v>22.84</v>
       </c>
       <c r="AW25" t="n">
-        <v>2.88</v>
+        <v>23.83</v>
       </c>
     </row>
     <row r="26">
@@ -5327,7 +5327,7 @@
         <v>-0.01</v>
       </c>
       <c r="AW37" t="n">
-        <v>1.2</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="38">
